--- a/data-raw/metadata/2022_update/F4F2021_metadata2022.xlsx
+++ b/data-raw/metadata/2022_update/F4F2021_metadata2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/edi.996.1/data-raw/metadata/2022_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A603AC71-02ED-9B4D-ABAD-B9389CDFAA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48676B-F303-334F-A268-318896B1AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23540" windowHeight="15940" tabRatio="543" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33980" yWindow="1400" windowWidth="28000" windowHeight="17260" tabRatio="543" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personnel" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="297">
   <si>
     <t>first_name</t>
   </si>
@@ -3398,13 +3398,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DF165-E062-4177-BD9A-4C435D916465}">
-  <dimension ref="A1:AMH73"/>
+  <dimension ref="A1:AMH74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="53" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>98</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="54" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>98</v>
@@ -6154,134 +6154,134 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K55" t="s">
-        <v>102</v>
-      </c>
-      <c r="L55" t="s">
-        <v>102</v>
-      </c>
-      <c r="M55" s="8">
-        <v>43417</v>
-      </c>
-      <c r="N55" s="9">
-        <v>43592</v>
+        <v>101</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="K56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" s="8">
+        <v>43417</v>
+      </c>
+      <c r="N56" s="9">
+        <v>43592</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="10">
-        <v>0</v>
-      </c>
-      <c r="N57" s="11">
+      <c r="M58" s="10">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
         <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>104</v>
@@ -6290,15 +6290,15 @@
         <v>0</v>
       </c>
       <c r="N59" s="2">
-        <v>2000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>99</v>
@@ -6322,15 +6322,15 @@
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>99</v>
@@ -6345,10 +6345,10 @@
         <v>100</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="62" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>99</v>
@@ -6377,24 +6377,24 @@
         <v>100</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <v>1</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>99</v>
@@ -6408,8 +6408,8 @@
       <c r="G63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>116</v>
+      <c r="H63" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>104</v>
@@ -6418,12 +6418,12 @@
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
@@ -6440,8 +6440,8 @@
       <c r="G64" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>293</v>
+      <c r="H64" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>104</v>
@@ -6450,30 +6450,30 @@
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>104</v>
@@ -6482,30 +6482,30 @@
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>104</v>
@@ -6514,15 +6514,15 @@
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>99</v>
@@ -6537,7 +6537,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>104</v>
@@ -6546,15 +6546,15 @@
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>99</v>
@@ -6578,15 +6578,15 @@
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>99</v>
@@ -6601,24 +6601,24 @@
         <v>100</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
       </c>
       <c r="N69" s="2">
-        <v>1000000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>99</v>
@@ -6633,7 +6633,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>112</v>
@@ -6645,12 +6645,12 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>99</v>
@@ -6665,76 +6665,108 @@
         <v>100</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>112</v>
       </c>
       <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M72" s="2">
         <v>1</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N72" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="74" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="G74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M73" s="2">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2">
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G71:G1048576 G66 G1:G62" xr:uid="{34807B26-DFCB-4954-B48D-EA07A3523DCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 G67 G1:G63" xr:uid="{34807B26-DFCB-4954-B48D-EA07A3523DCF}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 F1:F1048576" xr:uid="{75C9FBD8-532B-4743-BBB0-EA7F5842405C}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G70 G63:G65 D1:D1048576" xr:uid="{EEE289D4-EB39-4F40-9D52-38D4BFAAAD93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68:G71 G64:G66 D1:D1048576" xr:uid="{EEE289D4-EB39-4F40-9D52-38D4BFAAAD93}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8F6442F9-A86C-4F91-8B91-87A8DD56E1AE}">

--- a/data-raw/metadata/2022_update/F4F2021_metadata2022.xlsx
+++ b/data-raw/metadata/2022_update/F4F2021_metadata2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/edi.996.1/data-raw/metadata/2022_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC48676B-F303-334F-A268-318896B1AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92669B68-C6FD-5D4B-92F0-D70B73D6D2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33980" yWindow="1400" windowWidth="28000" windowHeight="17260" tabRatio="543" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="28000" windowHeight="15940" tabRatio="543" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personnel" sheetId="1" r:id="rId1"/>
@@ -899,9 +899,6 @@
     <t>F4F2021</t>
   </si>
   <si>
-    <t>Fish Food on Floodplain Farm Fields 2021</t>
-  </si>
-  <si>
     <t>Moina</t>
   </si>
   <si>
@@ -933,6 +930,9 @@
   </si>
   <si>
     <t>annually</t>
+  </si>
+  <si>
+    <t>Fish Food on Floodplain Farm Fields 2019, 2021, and 2022</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1453,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
@@ -1517,13 +1517,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>284</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1847,14 +1847,14 @@
     </row>
     <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1896,7 +1896,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3381,13 +3381,13 @@
         <v>214</v>
       </c>
       <c r="F54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H54" t="s">
         <v>206</v>
       </c>
       <c r="I54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3400,11 +3400,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DF165-E062-4177-BD9A-4C435D916465}">
   <dimension ref="A1:AMH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="55" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>98</v>
@@ -6377,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>112</v>
@@ -6473,7 +6473,7 @@
         <v>100</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>104</v>
@@ -6569,7 +6569,7 @@
         <v>100</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>104</v>
@@ -6601,7 +6601,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>104</v>
@@ -6746,7 +6746,7 @@
         <v>100</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>104</v>

--- a/data-raw/metadata/2022_update/F4F2021_metadata2022.xlsx
+++ b/data-raw/metadata/2022_update/F4F2021_metadata2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/edi.996.1/data-raw/metadata/2022_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92669B68-C6FD-5D4B-92F0-D70B73D6D2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E88E8D-C8E9-B440-AB68-780398D54BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="28000" windowHeight="15940" tabRatio="543" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="28000" windowHeight="15760" tabRatio="543" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personnel" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="298">
   <si>
     <t>first_name</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>Fish Food on Floodplain Farm Fields 2019, 2021, and 2022</t>
+  </si>
+  <si>
+    <t>CVPIA</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1551,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,6 +1748,11 @@
       </c>
       <c r="B23" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
